--- a/Planejamento do Projeto.xlsx
+++ b/Planejamento do Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LineDan - Note\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LineDan - Note\OneDrive\Documentos\Danilo\PUC\2º Período\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDBF74-A582-4C54-9A8F-949A98660C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10984709-72E6-4746-8DD4-99B577F4CE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -560,6 +560,66 @@
   </si>
   <si>
     <t>Esboçar consulta com SQL de acordo com as necessidades de informação dos participantes do processo "Cadastro de Clientes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 vídeos, dividir em duplas </t>
+  </si>
+  <si>
+    <t>Escolha de indicadores de desempenho (mínimo 5) para avaliar o processo de negócio (modelo to be)</t>
+  </si>
+  <si>
+    <t>Descrição dos indicadores por meio de medidas estatísticas</t>
+  </si>
+  <si>
+    <t>Registro da seção 6 do documento do projeto (Indicadores de desempenho)</t>
+  </si>
+  <si>
+    <t>Avaliar quebra por processo</t>
+  </si>
+  <si>
+    <t>Projetar relatório para a análise do desempenho do processo "Vendas"</t>
+  </si>
+  <si>
+    <t>Projetar relatório para a análise do desempenho do processo "Cadastro de Produtos"</t>
+  </si>
+  <si>
+    <t>Projetar relatório para a análise do desempenho do processo "Cadastro de Clientes"</t>
+  </si>
+  <si>
+    <t>Desenvolver, na ferramenta Sydle One, o relatório do processo "Vendas"</t>
+  </si>
+  <si>
+    <t>Desenvolver, na ferramenta Sydle One, o relatório do processo "Cadastro de Produtos"</t>
+  </si>
+  <si>
+    <t>Desenvolver, na ferramenta Sydle One, o relatório do processo "Cadastro de Clientes"</t>
+  </si>
+  <si>
+    <t>Registrar os relatórios no documento do projeto (seção 5. Relatórios analíticos)</t>
+  </si>
+  <si>
+    <t>Elaborar consultas com SQL que produzam o relatório do processo "Vendas"</t>
+  </si>
+  <si>
+    <t>Elaborar consultas com SQL que produzam o relatório do processo "Cadastro de Produtos"</t>
+  </si>
+  <si>
+    <t>Elaborar consultas com SQL que produzam o relatório do processo "Cadastro de Clientes"</t>
+  </si>
+  <si>
+    <t>Registrar as consultas SQL no documento do projeto (seção 5.1. Associação de comandos SQL)</t>
+  </si>
+  <si>
+    <t>Preencha a lista de verificaçãocom a avaliação da qualidade e viabilidade do software produzido.</t>
+  </si>
+  <si>
+    <t>Elaborar uma prévia da apresentação da solução proposta (PowerPoint)</t>
+  </si>
+  <si>
+    <t>Elaborar um esboço de um roteiro de vídeo mostrando os principais aspectos do projeto desenvolvido ao longo do semestre.</t>
+  </si>
+  <si>
+    <t>Planejar as atividades da próxima etapa</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1108,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1112,26 +1187,56 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="229">
+  <dxfs count="454">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1144,6 +1249,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -1153,6 +1303,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1162,6 +1348,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1171,6 +1402,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1189,6 +1447,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1207,6 +1492,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1216,6 +1537,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1225,6 +1573,60 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -1234,6 +1636,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1252,6 +1681,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1297,6 +1735,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1306,6 +1780,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -1324,6 +1807,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1333,6 +1843,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1360,6 +1897,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1369,6 +1915,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1378,6 +1933,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1387,6 +1978,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1396,6 +1996,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1405,6 +2041,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1414,6 +2059,78 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1423,6 +2140,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1432,6 +2158,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1441,6 +2176,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1450,6 +2230,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1459,6 +2275,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1468,6 +2320,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1477,6 +2365,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1486,6 +2410,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1495,6 +2446,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1504,6 +2491,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1513,6 +2518,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1522,6 +2554,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1531,6 +2581,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1540,6 +2608,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1549,6 +2635,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1567,6 +2680,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1576,6 +2734,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1603,6 +2788,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1621,6 +2842,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1648,6 +2896,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1666,6 +2950,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1693,6 +3004,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -1702,6 +3049,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1711,6 +3094,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -1747,6 +3166,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -1774,6 +3220,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor rgb="FFE69138"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1783,6 +3274,78 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -1792,6 +3355,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -1801,6 +3391,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -2188,6 +3805,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2224,6 +3850,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2233,6 +3904,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2269,6 +3985,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2314,6 +4039,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2323,6 +4084,69 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -2350,6 +4174,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2359,6 +4219,87 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2404,6 +4345,105 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -2413,6 +4453,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2422,6 +4489,60 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -2431,6 +4552,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor rgb="FFE69138"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -2440,6 +4606,60 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
         </patternFill>
@@ -2458,6 +4678,78 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -2467,8 +4759,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor rgb="FFE69138"/>
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -2485,6 +4804,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -2494,6 +4822,69 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2503,6 +4894,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
@@ -2512,6 +4930,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -2521,6 +4957,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -2530,6 +5002,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
         </patternFill>
@@ -2548,6 +5038,51 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2557,6 +5092,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFA1A1"/>
           <bgColor rgb="FFFFA1A1"/>
         </patternFill>
@@ -2566,494 +5137,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFA1A1"/>
-          <bgColor rgb="FFFFA1A1"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
         </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
@@ -3316,7 +5401,7 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3843,15 +5928,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3859,15 +5944,15 @@
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3875,15 +5960,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3891,15 +5976,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3907,15 +5992,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3937,15 +6022,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3970,15 +6055,15 @@
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3988,15 +6073,15 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4006,15 +6091,15 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4024,15 +6109,15 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4042,15 +6127,15 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4060,15 +6145,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4078,15 +6163,15 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -5336,12 +7421,12 @@
     </row>
     <row r="100" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="48"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="53"/>
       <c r="H100" s="38" t="s">
         <v>14</v>
       </c>
@@ -5363,10 +7448,10 @@
     </row>
     <row r="101" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="48"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="53"/>
       <c r="F101" s="40"/>
       <c r="G101" s="41" t="s">
         <v>19</v>
@@ -5398,10 +7483,10 @@
     </row>
     <row r="102" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="48"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="53"/>
       <c r="F102" s="40"/>
       <c r="G102" s="41" t="s">
         <v>22</v>
@@ -5433,10 +7518,10 @@
     </row>
     <row r="103" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="48"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="40"/>
       <c r="G103" s="41" t="s">
         <v>25</v>
@@ -5468,17 +7553,17 @@
     </row>
     <row r="104" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="48"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="40"/>
       <c r="G104" s="41" t="s">
         <v>27</v>
       </c>
       <c r="H104" s="43">
         <f>'Etapa #5'!G61</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I104" s="43">
         <f>'Etapa #5'!H61</f>
@@ -5501,10 +7586,10 @@
     </row>
     <row r="105" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="48"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="40"/>
       <c r="G105" s="41" t="s">
         <v>29</v>
@@ -5529,8 +7614,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="53"/>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
       <c r="H106" s="40"/>
@@ -5547,8 +7632,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="48"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="42"/>
       <c r="E107" s="40"/>
       <c r="F107" s="40"/>
@@ -6633,67 +8718,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6709,16 +8794,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,15 +8819,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -6756,11 +8841,11 @@
       <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="10" t="s">
         <v>35</v>
       </c>
@@ -6777,9 +8862,9 @@
       <c r="D11" s="12">
         <v>45536</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="13">
         <v>100</v>
       </c>
@@ -6798,9 +8883,9 @@
         <f t="shared" ref="D12:D15" si="1">C12+20</f>
         <v>45557</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
     </row>
@@ -6817,9 +8902,9 @@
         <f t="shared" si="1"/>
         <v>45578</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
     </row>
@@ -6836,9 +8921,9 @@
         <f t="shared" si="1"/>
         <v>45599</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="13"/>
       <c r="I14" s="1"/>
     </row>
@@ -6855,9 +8940,9 @@
         <f t="shared" si="1"/>
         <v>45620</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
     </row>
@@ -6874,9 +8959,9 @@
         <f>C16+13</f>
         <v>45634</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="13"/>
       <c r="I16" s="1"/>
     </row>
@@ -8877,16 +10962,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="16">
         <f>Planejamento!C12</f>
         <v>45537</v>
@@ -8894,16 +10979,16 @@
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J22" si="0">J1+1</f>
         <v>45538</v>
@@ -8911,16 +10996,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16">
         <f t="shared" si="0"/>
         <v>45539</v>
@@ -8928,16 +11013,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>45540</v>
@@ -8945,16 +11030,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>45541</v>
@@ -8976,17 +11061,17 @@
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>45543</v>
@@ -9008,15 +11093,15 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="44" t="s">
         <v>42</v>
       </c>
@@ -10228,25 +12313,25 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="52"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="74" t="s">
+      <c r="B74" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="18" t="s">
         <v>68</v>
       </c>
@@ -10256,14 +12341,14 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="72" t="str">
+      <c r="B75" s="77" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="28">
         <f>SUMIF($E$11:$E$61,'Dados do Projeto'!$B10,G$11:G$61)</f>
         <v>0</v>
@@ -10275,14 +12360,14 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="72" t="str">
+      <c r="B76" s="77" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="28">
         <f>SUMIF(E$11:E$61,'Dados do Projeto'!B11,G$11:G$61)</f>
         <v>0</v>
@@ -10294,14 +12379,14 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="72" t="str">
+      <c r="B77" s="77" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="28">
         <f>SUMIF(E$11:E$61,'Dados do Projeto'!B12,G$11:G$61)</f>
         <v>0</v>
@@ -10313,14 +12398,14 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="72" t="str">
+      <c r="B78" s="77" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="28">
         <f>SUMIF(E$11:E$61,'Dados do Projeto'!B13,G$11:G$61)</f>
         <v>0</v>
@@ -10332,14 +12417,14 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="72" t="str">
+      <c r="B79" s="77" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="28">
         <f>SUMIF(E$11:E$61,'Dados do Projeto'!B14,G$11:G$61)</f>
         <v>0</v>
@@ -10351,14 +12436,14 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="72" t="str">
+      <c r="B80" s="77" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="28">
         <f>SUMIF(E$11:E$61,'Dados do Projeto'!B15,G$11:G$61)</f>
         <v>0</v>
@@ -11635,45 +13720,45 @@
     <mergeCell ref="B77:F77"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C70">
-    <cfRule type="expression" dxfId="228" priority="13">
+    <cfRule type="expression" dxfId="453" priority="13">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E70">
-    <cfRule type="expression" dxfId="227" priority="1">
+    <cfRule type="expression" dxfId="452" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="2">
+    <cfRule type="expression" dxfId="451" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="3">
+    <cfRule type="expression" dxfId="450" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="4">
+    <cfRule type="expression" dxfId="449" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="5">
+    <cfRule type="expression" dxfId="448" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="222" priority="6">
+    <cfRule type="containsBlanks" dxfId="447" priority="6">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="14">
+    <cfRule type="expression" dxfId="446" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$75),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="15">
+    <cfRule type="expression" dxfId="445" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$76),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="16">
+    <cfRule type="expression" dxfId="444" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$77),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="17">
+    <cfRule type="expression" dxfId="443" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$78),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="18">
+    <cfRule type="expression" dxfId="442" priority="18">
       <formula>NOT(ISERROR(SEARCH(($B$79),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="216" priority="19">
+    <cfRule type="containsBlanks" dxfId="441" priority="19">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11732,16 +13817,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="16">
         <f>Planejamento!C13</f>
         <v>45558</v>
@@ -11749,16 +13834,16 @@
     </row>
     <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J21" si="0">J1+1</f>
         <v>45559</v>
@@ -11766,16 +13851,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16">
         <f t="shared" si="0"/>
         <v>45560</v>
@@ -11783,16 +13868,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>45561</v>
@@ -11800,16 +13885,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>45562</v>
@@ -11831,17 +13916,17 @@
     </row>
     <row r="7" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>45564</v>
@@ -11863,15 +13948,15 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="45" t="s">
         <v>42</v>
       </c>
@@ -12906,25 +14991,25 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="18" t="s">
         <v>68</v>
       </c>
@@ -12934,14 +15019,14 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="72" t="str">
+      <c r="B65" s="77" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="28">
         <f>SUMIF($E$11:$E$60,'Dados do Projeto'!$B10,G$11:G$60)</f>
         <v>0</v>
@@ -12953,14 +15038,14 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="72" t="str">
+      <c r="B66" s="77" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B11,G$11:G$60)</f>
         <v>0</v>
@@ -12972,14 +15057,14 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="72" t="str">
+      <c r="B67" s="77" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B12,G$11:G$60)</f>
         <v>0</v>
@@ -12991,14 +15076,14 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="72" t="str">
+      <c r="B68" s="77" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B13,G$11:G$60)</f>
         <v>0</v>
@@ -13010,14 +15095,14 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="72" t="str">
+      <c r="B69" s="77" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B14,G$11:G$60)</f>
         <v>0</v>
@@ -13029,14 +15114,14 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="72" t="str">
+      <c r="B70" s="77" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B15,G$11:G$60)</f>
         <v>0</v>
@@ -14321,219 +16406,219 @@
     <mergeCell ref="B67:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="215" priority="13">
+    <cfRule type="expression" dxfId="440" priority="13">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 E18:E60">
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="439" priority="77">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="75">
+    <cfRule type="containsBlanks" dxfId="438" priority="45">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="437" priority="44">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="43">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="42">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="212" priority="78">
+    <cfRule type="expression" dxfId="434" priority="76">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="75">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="432" priority="78">
       <formula>LEN(TRIM(E11))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="211" priority="45">
-      <formula>LEN(TRIM(E11))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="43">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="42">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="44">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="76">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="206" priority="54">
+    <cfRule type="expression" dxfId="431" priority="56">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="57">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="58">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="428" priority="59">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="24">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="426" priority="17">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="425" priority="18">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="424" priority="19">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="423" priority="21">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="55">
+    <cfRule type="expression" dxfId="422" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="56">
+    <cfRule type="expression" dxfId="421" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="57">
+    <cfRule type="expression" dxfId="420" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="419" priority="25">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="26">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="51">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="416" priority="50">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="52">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="58">
+    <cfRule type="expression" dxfId="414" priority="53">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="59">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="22">
+    <cfRule type="containsBlanks" dxfId="413" priority="54">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="55">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="17">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="19">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="196" priority="21">
-      <formula>LEN(TRIM(E11))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="18">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="25">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="26">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="50">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="51">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="52">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="53">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E17">
-    <cfRule type="containsBlanks" dxfId="186" priority="12">
+    <cfRule type="containsBlanks" dxfId="411" priority="12">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E17">
-    <cfRule type="expression" dxfId="185" priority="2">
+    <cfRule type="expression" dxfId="410" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(E12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="3">
+    <cfRule type="expression" dxfId="409" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(E12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="4">
+    <cfRule type="expression" dxfId="408" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(E12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="5">
+    <cfRule type="expression" dxfId="407" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(E12))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="181" priority="6">
+    <cfRule type="containsBlanks" dxfId="406" priority="6">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="7">
+    <cfRule type="expression" dxfId="405" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="404" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(E12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="8">
+    <cfRule type="expression" dxfId="401" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(E12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(E12))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="11">
-      <formula>NOT(ISERROR(SEARCH(($B$79),(E12))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(E12))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="400" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="containsBlanks" dxfId="174" priority="34">
+    <cfRule type="expression" dxfId="399" priority="36">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="37">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="38">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="31">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="30">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="32">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="33">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="63">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="64">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="65">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="66">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="387" priority="67">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="35">
+    <cfRule type="expression" dxfId="386" priority="68">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="36">
+    <cfRule type="expression" dxfId="385" priority="69">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="37">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="30">
+    <cfRule type="expression" dxfId="384" priority="61">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="71">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="382" priority="72">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="381" priority="34">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="380" priority="39">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="35">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="169" priority="39">
-      <formula>LEN(TRIM(E18))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="28">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="31">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="63">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="64">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="65">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="66">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="162" priority="67">
-      <formula>LEN(TRIM(E18))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="68">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="69">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="61">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="71">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="157" priority="72">
-      <formula>LEN(TRIM(E18))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="38">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="32">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="33">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="70">
+    <cfRule type="expression" dxfId="378" priority="70">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E60 E11">
-    <cfRule type="expression" dxfId="152" priority="74">
+    <cfRule type="expression" dxfId="377" priority="41">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="41">
+    <cfRule type="expression" dxfId="376" priority="74">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E60">
-    <cfRule type="expression" dxfId="150" priority="73">
+    <cfRule type="expression" dxfId="375" priority="40">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="40">
+    <cfRule type="expression" dxfId="374" priority="73">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14572,9 +16657,9 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14594,16 +16679,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="16">
         <f>Planejamento!C14</f>
         <v>45579</v>
@@ -14611,16 +16696,16 @@
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J21" si="0">J1+1</f>
         <v>45580</v>
@@ -14628,16 +16713,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16">
         <f t="shared" si="0"/>
         <v>45581</v>
@@ -14645,16 +16730,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>45582</v>
@@ -14662,16 +16747,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>45583</v>
@@ -14693,17 +16778,17 @@
     </row>
     <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>45585</v>
@@ -14725,15 +16810,15 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="45" t="s">
         <v>42</v>
       </c>
@@ -14778,13 +16863,13 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="49">
         <v>45599</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="50" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="21"/>
@@ -14817,13 +16902,13 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="49">
         <v>45585</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="50" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="21"/>
@@ -14844,13 +16929,13 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="49">
         <v>45585</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="50" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="21"/>
@@ -14871,13 +16956,13 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="49">
         <v>45585</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="50" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="21"/>
@@ -14887,7 +16972,7 @@
       <c r="H14" s="23">
         <v>0</v>
       </c>
-      <c r="I14" s="76"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>45592</v>
@@ -14898,13 +16983,13 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="49">
         <v>45592</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="50" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="21"/>
@@ -14914,7 +16999,7 @@
       <c r="H15" s="23">
         <v>0</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>45593</v>
@@ -14925,13 +17010,13 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="49">
         <v>45592</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="50" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="21"/>
@@ -14941,7 +17026,7 @@
       <c r="H16" s="23">
         <v>0</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>45594</v>
@@ -14952,13 +17037,13 @@
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="49">
         <v>45592</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="50" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="21"/>
@@ -14968,7 +17053,7 @@
       <c r="H17" s="23">
         <v>0</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>45595</v>
@@ -14979,13 +17064,13 @@
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="49">
         <v>45599</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="50" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="21"/>
@@ -14995,7 +17080,9 @@
       <c r="H18" s="23">
         <v>0</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="48" t="s">
+        <v>92</v>
+      </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
         <v>45596</v>
@@ -15006,13 +17093,13 @@
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="49">
         <v>45599</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="50" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="21"/>
@@ -15022,7 +17109,7 @@
       <c r="H19" s="23">
         <v>0</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -15033,13 +17120,13 @@
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="49">
         <v>45599</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="50" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="21"/>
@@ -15049,7 +17136,7 @@
       <c r="H20" s="23">
         <v>0</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
         <v>45598</v>
@@ -15060,13 +17147,13 @@
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="49">
         <v>45599</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="50" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="21"/>
@@ -15076,7 +17163,7 @@
       <c r="H21" s="23">
         <v>0</v>
       </c>
-      <c r="I21" s="76"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
         <v>45599</v>
@@ -15087,13 +17174,13 @@
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="49">
         <v>45599</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="21"/>
@@ -15103,7 +17190,7 @@
       <c r="H22" s="23">
         <v>0</v>
       </c>
-      <c r="I22" s="76"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15121,7 +17208,7 @@
       <c r="H23" s="23">
         <v>0</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15139,7 +17226,7 @@
       <c r="H24" s="23">
         <v>0</v>
       </c>
-      <c r="I24" s="76"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15157,7 +17244,7 @@
       <c r="H25" s="23">
         <v>0</v>
       </c>
-      <c r="I25" s="76"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15175,7 +17262,7 @@
       <c r="H26" s="23">
         <v>0</v>
       </c>
-      <c r="I26" s="76"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15193,7 +17280,7 @@
       <c r="H27" s="23">
         <v>0</v>
       </c>
-      <c r="I27" s="76"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15211,7 +17298,7 @@
       <c r="H28" s="23">
         <v>0</v>
       </c>
-      <c r="I28" s="76"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15229,7 +17316,7 @@
       <c r="H29" s="23">
         <v>0</v>
       </c>
-      <c r="I29" s="76"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15247,7 +17334,7 @@
       <c r="H30" s="23">
         <v>0</v>
       </c>
-      <c r="I30" s="76"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15265,7 +17352,7 @@
       <c r="H31" s="23">
         <v>0</v>
       </c>
-      <c r="I31" s="76"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -15282,7 +17369,7 @@
       <c r="H32" s="23">
         <v>0</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -15299,7 +17386,7 @@
       <c r="H33" s="23">
         <v>0</v>
       </c>
-      <c r="I33" s="76"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -15613,7 +17700,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="75"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="23">
@@ -15630,7 +17717,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="75"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="23">
@@ -15647,7 +17734,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="20"/>
-      <c r="D54" s="75"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="23">
@@ -15664,7 +17751,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="20"/>
-      <c r="D55" s="75"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="23">
@@ -15797,25 +17884,25 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="18" t="s">
         <v>68</v>
       </c>
@@ -15825,14 +17912,14 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="72" t="str">
+      <c r="B65" s="77" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="28">
         <f>SUMIF($E$11:$E$60,'Dados do Projeto'!$B10,G$11:G$60)</f>
         <v>0</v>
@@ -15844,14 +17931,14 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="72" t="str">
+      <c r="B66" s="77" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B11,G$11:G$60)</f>
         <v>0</v>
@@ -15863,14 +17950,14 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="72" t="str">
+      <c r="B67" s="77" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B12,G$11:G$60)</f>
         <v>0</v>
@@ -15882,14 +17969,14 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="72" t="str">
+      <c r="B68" s="77" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B13,G$11:G$60)</f>
         <v>0</v>
@@ -15901,14 +17988,14 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="72" t="str">
+      <c r="B69" s="77" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B14,G$11:G$60)</f>
         <v>0</v>
@@ -15920,14 +18007,14 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="72" t="str">
+      <c r="B70" s="77" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B15,G$11:G$60)</f>
         <v>0</v>
@@ -17212,273 +19299,270 @@
     <mergeCell ref="B67:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="148" priority="72">
+    <cfRule type="expression" dxfId="373" priority="72">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E21 E23:E60">
-    <cfRule type="expression" dxfId="147" priority="64">
+    <cfRule type="expression" dxfId="372" priority="89">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="88">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="87">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="86">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="83">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="67">
+    <cfRule type="containsBlanks" dxfId="367" priority="90">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E21">
+    <cfRule type="expression" dxfId="366" priority="67">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="68">
+    <cfRule type="containsBlanks" dxfId="365" priority="71">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="70">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="69">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="68">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="69">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="70">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="142" priority="71">
-      <formula>LEN(TRIM(E11))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="83">
+    <cfRule type="expression" dxfId="361" priority="64">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="86">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="87">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="88">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="89">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="136" priority="90">
-      <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13 E16:E17">
-    <cfRule type="containsBlanks" dxfId="135" priority="54">
+    <cfRule type="containsBlanks" dxfId="360" priority="54">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="55">
+    <cfRule type="expression" dxfId="359" priority="55">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="56">
+    <cfRule type="containsBlanks" dxfId="358" priority="78">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="82">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="81">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="80">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="57">
+    <cfRule type="expression" dxfId="354" priority="79">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="77">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="76">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="58">
+    <cfRule type="expression" dxfId="351" priority="75">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="74">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="63">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="130" priority="59">
+    <cfRule type="expression" dxfId="348" priority="62">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="61">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="60">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="345" priority="59">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="60">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="61">
+    <cfRule type="expression" dxfId="344" priority="58">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="57">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="56">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="62">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="63">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="74">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="75">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="76">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="77">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="121" priority="78">
-      <formula>LEN(TRIM(E13))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="79">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="80">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="81">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="82">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsBlanks" dxfId="52" priority="35">
+    <cfRule type="expression" dxfId="341" priority="52">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="53">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="36">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="37">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="38">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="39">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="335" priority="40">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="36">
+    <cfRule type="expression" dxfId="334" priority="41">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="37">
+    <cfRule type="expression" dxfId="333" priority="42">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="38">
+    <cfRule type="expression" dxfId="332" priority="43">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="331" priority="44">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="47" priority="40">
+    <cfRule type="expression" dxfId="330" priority="45">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="46">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="47">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="48">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="326" priority="49">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41">
+    <cfRule type="expression" dxfId="325" priority="50">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42">
+    <cfRule type="expression" dxfId="324" priority="51">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="43">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="47">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="38" priority="49">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E60">
+    <cfRule type="containsBlanks" dxfId="323" priority="34">
       <formula>LEN(TRIM(E20))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="52">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="53">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="322" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="319" priority="6">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="containsBlanks" dxfId="315" priority="28">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="26">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="312" priority="25">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="24">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="310" priority="23">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="308" priority="21">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="19">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="18">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="304" priority="17">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="303" priority="16">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="15">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="containsBlanks" dxfId="300" priority="11">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="13">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="12">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="295" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E60">
+    <cfRule type="expression" dxfId="294" priority="33">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="31" priority="34">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="293" priority="32">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="31">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="6">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="23">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="25">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="26">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="27">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="28">
-      <formula>LEN(TRIM(E22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="290" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17514,9 +19598,9 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I3"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17536,16 +19620,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="16">
         <f>Planejamento!C15</f>
         <v>45600</v>
@@ -17553,16 +19637,16 @@
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J21" si="0">J1+1</f>
         <v>45601</v>
@@ -17570,16 +19654,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16">
         <f t="shared" si="0"/>
         <v>45602</v>
@@ -17587,16 +19671,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>45603</v>
@@ -17604,16 +19688,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>45604</v>
@@ -17635,17 +19719,17 @@
     </row>
     <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>45606</v>
@@ -17667,15 +19751,15 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="45" t="s">
         <v>42</v>
       </c>
@@ -17720,17 +19804,25 @@
       <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="49">
+        <v>45620</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
         <v>45610</v>
@@ -17751,12 +19843,18 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="23">
         <v>0</v>
@@ -17772,12 +19870,18 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="23">
         <v>0</v>
@@ -17793,12 +19897,18 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="23">
         <v>0</v>
@@ -17814,12 +19924,18 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="23">
         <v>0</v>
@@ -17835,12 +19951,18 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="23">
         <v>0</v>
@@ -17856,12 +19978,18 @@
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="20">
+        <v>45606</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="23">
         <v>0</v>
@@ -17877,12 +20005,18 @@
       <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="20">
+        <v>45613</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="23">
         <v>0</v>
@@ -17898,12 +20032,18 @@
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="20">
+        <v>45613</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="23">
         <v>0</v>
@@ -17919,12 +20059,18 @@
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="20">
+        <v>45613</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="23">
         <v>0</v>
@@ -17940,12 +20086,18 @@
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="20">
+        <v>45613</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>59</v>
+      </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="23">
         <v>0</v>
@@ -17961,12 +20113,18 @@
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="23">
         <v>0</v>
@@ -17979,12 +20137,18 @@
       <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="22"/>
       <c r="G23" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="23">
         <v>0</v>
@@ -17997,12 +20161,18 @@
       <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="23">
         <v>0</v>
@@ -18015,12 +20185,18 @@
       <c r="B25" s="19">
         <v>15</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="23">
         <v>0</v>
@@ -18033,12 +20209,18 @@
       <c r="B26" s="19">
         <v>16</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="23">
         <v>0</v>
@@ -18051,12 +20233,18 @@
       <c r="B27" s="19">
         <v>17</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="23">
         <v>0</v>
@@ -18069,12 +20257,18 @@
       <c r="B28" s="19">
         <v>18</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="23">
         <v>0</v>
@@ -18087,12 +20281,18 @@
       <c r="B29" s="19">
         <v>19</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="20">
+        <v>45620</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="23">
         <v>0</v>
@@ -18636,7 +20836,7 @@
       </c>
       <c r="G61" s="27">
         <f t="shared" ref="G61:H61" si="1">SUM(G11:G60)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H61" s="27">
         <f t="shared" si="1"/>
@@ -18650,7 +20850,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8">
@@ -18663,25 +20863,25 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="18" t="s">
         <v>68</v>
       </c>
@@ -18691,14 +20891,14 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="72" t="str">
+      <c r="B65" s="77" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="28">
         <f>SUMIF($E$11:$E$60,'Dados do Projeto'!$B10,G$11:G$60)</f>
         <v>0</v>
@@ -18710,14 +20910,14 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="72" t="str">
+      <c r="B66" s="77" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B11,G$11:G$60)</f>
         <v>0</v>
@@ -18729,14 +20929,14 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="72" t="str">
+      <c r="B67" s="77" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B12,G$11:G$60)</f>
         <v>0</v>
@@ -18748,14 +20948,14 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="72" t="str">
+      <c r="B68" s="77" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B13,G$11:G$60)</f>
         <v>0</v>
@@ -18767,14 +20967,14 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="72" t="str">
+      <c r="B69" s="77" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B14,G$11:G$60)</f>
         <v>0</v>
@@ -18786,14 +20986,14 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="72" t="str">
+      <c r="B70" s="77" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B15,G$11:G$60)</f>
         <v>0</v>
@@ -20077,106 +22277,848 @@
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B67:F67"/>
   </mergeCells>
-  <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="116" priority="19">
+  <conditionalFormatting sqref="C12:C60">
+    <cfRule type="expression" dxfId="289" priority="245">
+      <formula>AND(ISNUMBER(C12),TRUNC(C12)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13 E26:E28 E30:E60">
+    <cfRule type="expression" dxfId="288" priority="237">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="240">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="241">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="242">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="243">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E12))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="283" priority="244">
+      <formula>LEN(TRIM(E12))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="256">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="259">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="260">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="261">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="262">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E12))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="277" priority="263">
+      <formula>LEN(TRIM(E12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsBlanks" dxfId="276" priority="227">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="228">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="229">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="230">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="231">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="271" priority="232">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="233">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="234">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="235">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="236">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="247">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="248">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="249">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="250">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="262" priority="251">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="252">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="253">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="254">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="255">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="225" priority="220">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E60">
-    <cfRule type="expression" dxfId="115" priority="11">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="220" priority="221">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="14">
+    <cfRule type="expression" dxfId="221" priority="222">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="15">
+    <cfRule type="expression" dxfId="222" priority="223">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="16">
+    <cfRule type="expression" dxfId="223" priority="224">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="17">
+    <cfRule type="expression" dxfId="224" priority="225">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="110" priority="18">
+    <cfRule type="containsBlanks" dxfId="219" priority="226">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="30">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="213" priority="214">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="33">
+    <cfRule type="expression" dxfId="218" priority="215">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="34">
+    <cfRule type="expression" dxfId="214" priority="216">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="35">
+    <cfRule type="expression" dxfId="215" priority="217">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="36">
+    <cfRule type="expression" dxfId="216" priority="218">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="104" priority="37">
+    <cfRule type="containsBlanks" dxfId="217" priority="219">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13 E17">
-    <cfRule type="containsBlanks" dxfId="103" priority="1">
-      <formula>LEN(TRIM(E13))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="98" priority="6">
-      <formula>LEN(TRIM(E13))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="24">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="89" priority="25">
-      <formula>LEN(TRIM(E13))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="26">
-      <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="27">
-      <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="28">
-      <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="29">
-      <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="212" priority="208">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="209">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="210">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="211">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="212">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E14))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="207" priority="213">
+      <formula>LEN(TRIM(E14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="206" priority="202">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="203">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="204">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="205">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="206">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E14))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="201" priority="207">
+      <formula>LEN(TRIM(E14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="196" priority="196">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="197">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="198">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="199">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="200">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E17))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="195" priority="201">
+      <formula>LEN(TRIM(E17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="189" priority="190">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="191">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="192">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="193">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E17))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="194">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E17))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="193" priority="195">
+      <formula>LEN(TRIM(E17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="184" priority="184">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="185">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="186">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="187">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="188">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E15))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="183" priority="189">
+      <formula>LEN(TRIM(E15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="177" priority="178">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="179">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="180">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="181">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E15))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="182">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E15))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="181" priority="183">
+      <formula>LEN(TRIM(E15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="172" priority="172">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="173">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="174">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="175">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="176">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="171" priority="177">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="165" priority="157">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="158">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="159">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="160">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="161">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="169" priority="162">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="containsBlanks" dxfId="164" priority="147">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="148">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="149">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="150">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="151">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="149" priority="152">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="153">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="154">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="155">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="156">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="163">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="164">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="165">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="166">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="162" priority="167">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="168">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="169">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="170">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="171">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="145" priority="141">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="142">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="143">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="144">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="145">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="140" priority="146">
+      <formula>LEN(TRIM(E20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="139" priority="135">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="136">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="137">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="138">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E20))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="139">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E20))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="134" priority="140">
+      <formula>LEN(TRIM(E20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="133" priority="129">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="130">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="131">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="132">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="133">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="128" priority="134">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="127" priority="123">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="124">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="125">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="126">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E18))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="127">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E18))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="122" priority="128">
+      <formula>LEN(TRIM(E18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="121" priority="117">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="118">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="119">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="120">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="121">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="116" priority="122">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="115" priority="102">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="103">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="104">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="105">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="106">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="110" priority="107">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="containsBlanks" dxfId="109" priority="92">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="93">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="94">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="95">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="96">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="104" priority="97">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="98">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="99">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="100">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="101">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="108">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="109">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="110">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="111">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="95" priority="112">
+      <formula>LEN(TRIM(E19))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="113">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="114">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="115">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E19))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="116">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="90" priority="86">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="87">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="88">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="89">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="90">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E21))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="85" priority="91">
+      <formula>LEN(TRIM(E21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="84" priority="80">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="81">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="82">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="83">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E21))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="84">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E21))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="79" priority="85">
+      <formula>LEN(TRIM(E21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="78" priority="74">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="75">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="78">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E24))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="73" priority="79">
+      <formula>LEN(TRIM(E24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="72" priority="68">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="69">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="71">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E24))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="72">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E24))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="67" priority="73">
+      <formula>LEN(TRIM(E24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="66" priority="62">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="63">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="64">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="65">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="66">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="61" priority="67">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="60" priority="56">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="57">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="58">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="59">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E22))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="60">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E22))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="55" priority="61">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="54" priority="50">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="49" priority="55">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="48" priority="35">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="36">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="37">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="39">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="43" priority="40">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsBlanks" dxfId="42" priority="25">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="26">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="29">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="37" priority="30">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="31">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="32">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="41">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="44">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="28" priority="45">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="46">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="47">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="48">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E23))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="49">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E25))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="18" priority="24">
+      <formula>LEN(TRIM(E25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E25))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E25))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="12" priority="18">
+      <formula>LEN(TRIM(E25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E29))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="6" priority="12">
+      <formula>LEN(TRIM(E29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(E29))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(E29))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
+      <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -20233,16 +23175,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="16">
         <f>Planejamento!C16</f>
         <v>45621</v>
@@ -20250,16 +23192,16 @@
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J14" si="0">J1+1</f>
         <v>45622</v>
@@ -20267,16 +23209,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16">
         <f t="shared" si="0"/>
         <v>45623</v>
@@ -20284,16 +23226,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>45624</v>
@@ -20301,16 +23243,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>45625</v>
@@ -20332,17 +23274,17 @@
     </row>
     <row r="7" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -20364,15 +23306,15 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="45" t="s">
         <v>42</v>
       </c>
@@ -21339,25 +24281,25 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="18" t="s">
         <v>68</v>
       </c>
@@ -21367,14 +24309,14 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="72" t="str">
+      <c r="B65" s="77" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="28">
         <f>SUMIF($E$11:$E$60,'Dados do Projeto'!$B10,G$11:G$60)</f>
         <v>0</v>
@@ -21386,14 +24328,14 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="72" t="str">
+      <c r="B66" s="77" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B11,G$11:G$60)</f>
         <v>0</v>
@@ -21405,14 +24347,14 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="72" t="str">
+      <c r="B67" s="77" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B12,G$11:G$60)</f>
         <v>0</v>
@@ -21424,14 +24366,14 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="72" t="str">
+      <c r="B68" s="77" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B13,G$11:G$60)</f>
         <v>0</v>
@@ -21443,14 +24385,14 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="72" t="str">
+      <c r="B69" s="77" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B14,G$11:G$60)</f>
         <v>0</v>
@@ -21462,14 +24404,14 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="72" t="str">
+      <c r="B70" s="77" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="28">
         <f>SUMIF(E$11:E$60,'Dados do Projeto'!B15,G$11:G$60)</f>
         <v>0</v>
@@ -22753,104 +25695,104 @@
     <mergeCell ref="B67:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="84" priority="19">
+    <cfRule type="expression" dxfId="257" priority="19">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E60">
-    <cfRule type="expression" dxfId="83" priority="11">
+    <cfRule type="expression" dxfId="256" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="14">
+    <cfRule type="expression" dxfId="255" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="15">
+    <cfRule type="expression" dxfId="254" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="16">
+    <cfRule type="expression" dxfId="253" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="17">
+    <cfRule type="expression" dxfId="252" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="78" priority="18">
+    <cfRule type="containsBlanks" dxfId="251" priority="18">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="30">
+    <cfRule type="expression" dxfId="250" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$65),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="33">
+    <cfRule type="expression" dxfId="249" priority="33">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="34">
+    <cfRule type="expression" dxfId="248" priority="34">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="35">
+    <cfRule type="expression" dxfId="247" priority="35">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="36">
+    <cfRule type="expression" dxfId="246" priority="36">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="72" priority="37">
+    <cfRule type="containsBlanks" dxfId="245" priority="37">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13 E17">
-    <cfRule type="containsBlanks" dxfId="71" priority="1">
+    <cfRule type="containsBlanks" dxfId="244" priority="1">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="243" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="3">
+    <cfRule type="expression" dxfId="242" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="241" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="240" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="66" priority="6">
+    <cfRule type="containsBlanks" dxfId="239" priority="6">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="7">
+    <cfRule type="expression" dxfId="238" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="237" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="236" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="235" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="21">
+    <cfRule type="expression" dxfId="234" priority="21">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="233" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="23">
+    <cfRule type="expression" dxfId="232" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="231" priority="24">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="57" priority="25">
+    <cfRule type="containsBlanks" dxfId="230" priority="25">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="229" priority="26">
       <formula>NOT(ISERROR(SEARCH(($B$69),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="27">
+    <cfRule type="expression" dxfId="228" priority="27">
       <formula>NOT(ISERROR(SEARCH(($B$68),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="227" priority="28">
       <formula>NOT(ISERROR(SEARCH(($B$67),(E13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="29">
+    <cfRule type="expression" dxfId="226" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$66),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
